--- a/data_year/zb/农业/畜产品产量.xlsx
+++ b/data_year/zb/农业/畜产品产量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,904 +498,560 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84921</v>
+        <v>113997.929631644</v>
       </c>
       <c r="C2" t="n">
-        <v>33266</v>
+        <v>36225.9378467637</v>
       </c>
       <c r="D2" t="n">
-        <v>827.4307</v>
+        <v>3038.93104201</v>
       </c>
       <c r="E2" t="n">
-        <v>513.1165999999999</v>
+        <v>629.0686492871999</v>
       </c>
       <c r="F2" t="n">
-        <v>3965.988</v>
+        <v>5138.4366550056</v>
       </c>
       <c r="G2" t="n">
-        <v>2182.0057</v>
+        <v>2776.8788120011</v>
       </c>
       <c r="H2" t="n">
-        <v>117386</v>
+        <v>123504.234325086</v>
       </c>
       <c r="I2" t="n">
-        <v>292502</v>
+        <v>385125.381349552</v>
       </c>
       <c r="J2" t="n">
-        <v>11057</v>
+        <v>17847.8902173632</v>
       </c>
       <c r="K2" t="n">
-        <v>264.1301</v>
+        <v>406.017852832</v>
       </c>
       <c r="L2" t="n">
-        <v>6013.9015</v>
+        <v>7993.605783562</v>
       </c>
       <c r="M2" t="n">
-        <v>24.6</v>
+        <v>38.189462034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88075</v>
+        <v>113305.310707468</v>
       </c>
       <c r="C3" t="n">
-        <v>34241</v>
+        <v>38070.331425062</v>
       </c>
       <c r="D3" t="n">
-        <v>1025.5</v>
+        <v>3109.9323131704</v>
       </c>
       <c r="E3" t="n">
-        <v>508.6</v>
+        <v>610.7070924023</v>
       </c>
       <c r="F3" t="n">
-        <v>4051.7</v>
+        <v>5131.6474133383</v>
       </c>
       <c r="G3" t="n">
-        <v>2210.1</v>
+        <v>2830.364532882</v>
       </c>
       <c r="H3" t="n">
-        <v>114651</v>
+        <v>132876.701110665</v>
       </c>
       <c r="I3" t="n">
-        <v>298254</v>
+        <v>386486.777288807</v>
       </c>
       <c r="J3" t="n">
-        <v>10968</v>
+        <v>17125.8758564164</v>
       </c>
       <c r="K3" t="n">
-        <v>271.8</v>
+        <v>397.964049814</v>
       </c>
       <c r="L3" t="n">
-        <v>6105.8</v>
+        <v>8022.9812405714</v>
       </c>
       <c r="M3" t="n">
-        <v>25.2</v>
+        <v>41.178465512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102418.68</v>
+        <v>127312.945597674</v>
       </c>
       <c r="C4" t="n">
-        <v>35459.05</v>
+        <v>40505.2974688505</v>
       </c>
       <c r="D4" t="n">
-        <v>1299.8</v>
+        <v>3174.9285191318</v>
       </c>
       <c r="E4" t="n">
-        <v>521.9</v>
+        <v>614.7463795366</v>
       </c>
       <c r="F4" t="n">
-        <v>4123.1</v>
+        <v>5443.5484941184</v>
       </c>
       <c r="G4" t="n">
-        <v>2265.7</v>
+        <v>2885.3943155697</v>
       </c>
       <c r="H4" t="n">
-        <v>112193</v>
+        <v>124716.030064921</v>
       </c>
       <c r="I4" t="n">
-        <v>307588</v>
+        <v>393724.550044712</v>
       </c>
       <c r="J4" t="n">
-        <v>11765</v>
+        <v>17210.8230620942</v>
       </c>
       <c r="K4" t="n">
-        <v>283.5</v>
+        <v>404.4989327381</v>
       </c>
       <c r="L4" t="n">
-        <v>6234.3</v>
+        <v>8471.102745988101</v>
       </c>
       <c r="M4" t="n">
-        <v>26.5</v>
+        <v>43.8392596041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110249.23</v>
+        <v>128335.400722186</v>
       </c>
       <c r="C5" t="n">
-        <v>36691.65</v>
+        <v>40214.9388792406</v>
       </c>
       <c r="D5" t="n">
-        <v>1746.3</v>
+        <v>3000.8171908463</v>
       </c>
       <c r="E5" t="n">
-        <v>542.5</v>
+        <v>613.0873332525</v>
       </c>
       <c r="F5" t="n">
-        <v>4238.6</v>
+        <v>5618.5990743466</v>
       </c>
       <c r="G5" t="n">
-        <v>2333.1</v>
+        <v>2905.5469234507</v>
       </c>
       <c r="H5" t="n">
-        <v>120263</v>
+        <v>131729.883021481</v>
       </c>
       <c r="I5" t="n">
-        <v>338058.23</v>
+        <v>402080.833263269</v>
       </c>
       <c r="J5" t="n">
-        <v>13528</v>
+        <v>17307.246799319</v>
       </c>
       <c r="K5" t="n">
-        <v>308.7</v>
+        <v>409.900057943</v>
       </c>
       <c r="L5" t="n">
-        <v>6443.3</v>
+        <v>8632.7705009847</v>
       </c>
       <c r="M5" t="n">
-        <v>28.9</v>
+        <v>43.6552181275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119513.71</v>
+        <v>132692.753575739</v>
       </c>
       <c r="C6" t="n">
-        <v>37727.14</v>
+        <v>38655.3530415386</v>
       </c>
       <c r="D6" t="n">
-        <v>2260.6</v>
+        <v>3159.8828943437</v>
       </c>
       <c r="E6" t="n">
-        <v>560.4</v>
+        <v>615.7223880434</v>
       </c>
       <c r="F6" t="n">
-        <v>4341</v>
+        <v>5820.8023019648</v>
       </c>
       <c r="G6" t="n">
-        <v>2370.6</v>
+        <v>2930.308355854</v>
       </c>
       <c r="H6" t="n">
-        <v>130413.18</v>
+        <v>122250.822995913</v>
       </c>
       <c r="I6" t="n">
-        <v>373901.69</v>
+        <v>407230.120988591</v>
       </c>
       <c r="J6" t="n">
-        <v>14514.7</v>
+        <v>18465.1207906125</v>
       </c>
       <c r="K6" t="n">
-        <v>332.9</v>
+        <v>427.6331519242</v>
       </c>
       <c r="L6" t="n">
-        <v>6608.7</v>
+        <v>8817.902413218901</v>
       </c>
       <c r="M6" t="n">
-        <v>29.32</v>
+        <v>46.2988774665</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>123067.814</v>
+        <v>134905.289572523</v>
       </c>
       <c r="C7" t="n">
-        <v>36903.881</v>
+        <v>35486.8268822959</v>
       </c>
       <c r="D7" t="n">
-        <v>2753.3729</v>
+        <v>3179.8290221828</v>
       </c>
       <c r="E7" t="n">
-        <v>568.0988</v>
+        <v>616.8859773369001</v>
       </c>
       <c r="F7" t="n">
-        <v>4555.3275</v>
+        <v>5645.4090008492</v>
       </c>
       <c r="G7" t="n">
-        <v>2438.1201</v>
+        <v>3046.1271627955</v>
       </c>
       <c r="H7" t="n">
-        <v>127862.211</v>
+        <v>130536.607404537</v>
       </c>
       <c r="I7" t="n">
-        <v>393171.592</v>
+        <v>413133.769492537</v>
       </c>
       <c r="J7" t="n">
-        <v>15434.832</v>
+        <v>18683.5586607823</v>
       </c>
       <c r="K7" t="n">
-        <v>350.0601</v>
+        <v>439.9322900993</v>
       </c>
       <c r="L7" t="n">
-        <v>6938.865</v>
+        <v>8749.5217259696</v>
       </c>
       <c r="M7" t="n">
-        <v>29.3211329</v>
+        <v>47.3156902449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>116042.98</v>
+        <v>137972.73594201</v>
       </c>
       <c r="C8" t="n">
-        <v>35171.14</v>
+        <v>35785.2747775913</v>
       </c>
       <c r="D8" t="n">
-        <v>2944.6151108</v>
+        <v>3064.0289593241</v>
       </c>
       <c r="E8" t="n">
-        <v>590.332021026</v>
+        <v>616.9050496562</v>
       </c>
       <c r="F8" t="n">
-        <v>4650.3430312227</v>
+        <v>5425.4937602194</v>
       </c>
       <c r="G8" t="n">
-        <v>2424.0027957334</v>
+        <v>3160.5386601843</v>
       </c>
       <c r="H8" t="n">
-        <v>130959.31</v>
+        <v>129164.201292881</v>
       </c>
       <c r="I8" t="n">
-        <v>387642.9</v>
+        <v>411642.392761842</v>
       </c>
       <c r="J8" t="n">
-        <v>16222.91</v>
+        <v>18844.2120458637</v>
       </c>
       <c r="K8" t="n">
-        <v>367.7271458611</v>
+        <v>460.2510052461</v>
       </c>
       <c r="L8" t="n">
-        <v>7099.8546621004</v>
+        <v>8628.3280203706</v>
       </c>
       <c r="M8" t="n">
-        <v>33.370059</v>
+        <v>55.5283630024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>108634.996203649</v>
+        <v>133458.484224428</v>
       </c>
       <c r="C9" t="n">
-        <v>35333.170371515</v>
+        <v>32862.6882189927</v>
       </c>
       <c r="D9" t="n">
-        <v>2947.0945797566</v>
+        <v>3038.6209477391</v>
       </c>
       <c r="E9" t="n">
-        <v>626.2191657722</v>
+        <v>634.6234182484</v>
       </c>
       <c r="F9" t="n">
-        <v>4307.8519118285</v>
+        <v>5451.7968818266</v>
       </c>
       <c r="G9" t="n">
-        <v>2546.7048470863</v>
+        <v>3096.2890712863</v>
       </c>
       <c r="H9" t="n">
-        <v>124262.211626959</v>
+        <v>127920.729437913</v>
       </c>
       <c r="I9" t="n">
-        <v>371074.88086483</v>
+        <v>410522.523698496</v>
       </c>
       <c r="J9" t="n">
-        <v>15664.7321706647</v>
+        <v>17852.2700817565</v>
       </c>
       <c r="K9" t="n">
-        <v>385.6797375753</v>
+        <v>471.068294881</v>
       </c>
       <c r="L9" t="n">
-        <v>6916.3966564321</v>
+        <v>8654.4312782993</v>
       </c>
       <c r="M9" t="n">
-        <v>37.9731673551</v>
+        <v>54.2543574255</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105272.417604146</v>
+        <v>120429.887846092</v>
       </c>
       <c r="C10" t="n">
-        <v>35477.2235371107</v>
+        <v>26964.9580353221</v>
       </c>
       <c r="D10" t="n">
-        <v>3010.5650115137</v>
+        <v>3074.564110173</v>
       </c>
       <c r="E10" t="n">
-        <v>617.6798540984</v>
+        <v>644.0603787876</v>
       </c>
       <c r="F10" t="n">
-        <v>4682.0165023182</v>
+        <v>5403.7357364028</v>
       </c>
       <c r="G10" t="n">
-        <v>2699.6192200703</v>
+        <v>3128.2836972303</v>
       </c>
       <c r="H10" t="n">
-        <v>119278.937443109</v>
+        <v>117891.25432</v>
       </c>
       <c r="I10" t="n">
-        <v>369664.590887312</v>
+        <v>356607.551166092</v>
       </c>
       <c r="J10" t="n">
-        <v>16533.6196283952</v>
+        <v>15437.7564</v>
       </c>
       <c r="K10" t="n">
-        <v>393.2426219359</v>
+        <v>475.0716019245</v>
       </c>
       <c r="L10" t="n">
-        <v>7370.877989724</v>
+        <v>8624.628536447</v>
       </c>
       <c r="M10" t="n">
-        <v>38.471675101</v>
+        <v>44.68785576</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109013.276366254</v>
+        <v>113283.801727666</v>
       </c>
       <c r="C11" t="n">
-        <v>35909.6340303368</v>
+        <v>24875.2555555823</v>
       </c>
       <c r="D11" t="n">
-        <v>2995.1334434685</v>
+        <v>3201.2394112041</v>
       </c>
       <c r="E11" t="n">
-        <v>626.1777382595</v>
+        <v>667.2798657215</v>
       </c>
       <c r="F11" t="n">
-        <v>4932.846197142</v>
+        <v>4255.3070768506</v>
       </c>
       <c r="G11" t="n">
-        <v>2751.877201611</v>
+        <v>3308.977</v>
       </c>
       <c r="H11" t="n">
-        <v>124364.780582659</v>
+        <v>108972.8497</v>
       </c>
       <c r="I11" t="n">
-        <v>358121.077214775</v>
+        <v>341120.156777666</v>
       </c>
       <c r="J11" t="n">
-        <v>16593.2132370109</v>
+        <v>14964.4254</v>
       </c>
       <c r="K11" t="n">
-        <v>399.4314612487</v>
+        <v>487.5232930219</v>
       </c>
       <c r="L11" t="n">
-        <v>7706.6686120557</v>
+        <v>7758.7774985892</v>
       </c>
       <c r="M11" t="n">
-        <v>39.6658114394</v>
+        <v>44.405378932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>113997.929631644</v>
+        <v>116848.51681</v>
       </c>
       <c r="C12" t="n">
-        <v>36225.9378467637</v>
+        <v>24033.60006</v>
       </c>
       <c r="D12" t="n">
-        <v>3038.93104201</v>
+        <v>3440.14009154393</v>
       </c>
       <c r="E12" t="n">
-        <v>629.0686492871999</v>
+        <v>672.445227594702</v>
       </c>
       <c r="F12" t="n">
-        <v>5138.4366550056</v>
+        <v>4113.32751561209</v>
       </c>
       <c r="G12" t="n">
-        <v>2776.8788120011</v>
+        <v>3467.75941997635</v>
       </c>
       <c r="H12" t="n">
-        <v>123504.234325086</v>
+        <v>106109.26996</v>
       </c>
       <c r="I12" t="n">
-        <v>385125.381349552</v>
+        <v>333624.70177</v>
       </c>
       <c r="J12" t="n">
-        <v>17847.8902173632</v>
+        <v>15243.641677129</v>
       </c>
       <c r="K12" t="n">
-        <v>406.017852832</v>
+        <v>492.312448156042</v>
       </c>
       <c r="L12" t="n">
-        <v>7993.605783562</v>
+        <v>7748.37940974222</v>
       </c>
       <c r="M12" t="n">
-        <v>38.189462034</v>
+        <v>45.81444625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113305.310707468</v>
+        <v>128262.060428211</v>
       </c>
       <c r="C13" t="n">
-        <v>38070.331425062</v>
+        <v>23331.768757737</v>
       </c>
       <c r="D13" t="n">
-        <v>3109.9323131704</v>
+        <v>3682.70053913564</v>
       </c>
       <c r="E13" t="n">
-        <v>610.7070924023</v>
+        <v>697.5081575635789</v>
       </c>
       <c r="F13" t="n">
-        <v>5131.6474133383</v>
+        <v>5295.92804945829</v>
       </c>
       <c r="G13" t="n">
-        <v>2830.364532882</v>
+        <v>3408.8060611395</v>
       </c>
       <c r="H13" t="n">
-        <v>132876.701110665</v>
+        <v>98153.5175755556</v>
       </c>
       <c r="I13" t="n">
-        <v>386486.777288807</v>
+        <v>356216.606881655</v>
       </c>
       <c r="J13" t="n">
-        <v>17125.8758564164</v>
+        <v>15102.1834455275</v>
       </c>
       <c r="K13" t="n">
-        <v>397.964049814</v>
+        <v>514.082929295362</v>
       </c>
       <c r="L13" t="n">
-        <v>8022.9812405714</v>
+        <v>8989.985748112749</v>
       </c>
       <c r="M13" t="n">
-        <v>41.178465512</v>
+        <v>47.2705657165655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127312.945597674</v>
+        <v>155024.418273977</v>
       </c>
       <c r="C14" t="n">
-        <v>40505.2974688505</v>
+        <v>24836.52387332</v>
       </c>
       <c r="D14" t="n">
-        <v>3174.9285191318</v>
+        <v>3931.63287543274</v>
       </c>
       <c r="E14" t="n">
-        <v>614.7463795366</v>
+        <v>718.260491976172</v>
       </c>
       <c r="F14" t="n">
-        <v>5443.5484941184</v>
+        <v>5541.43281009503</v>
       </c>
       <c r="G14" t="n">
-        <v>2885.3943155697</v>
+        <v>3456.37719307308</v>
       </c>
       <c r="H14" t="n">
-        <v>124716.030064921</v>
+        <v>68798.76678277621</v>
       </c>
       <c r="I14" t="n">
-        <v>393724.550044712</v>
+        <v>356193.537679509</v>
       </c>
       <c r="J14" t="n">
-        <v>17210.8230620942</v>
+        <v>14648.5266505121</v>
       </c>
       <c r="K14" t="n">
-        <v>404.4989327381</v>
+        <v>524.533253894984</v>
       </c>
       <c r="L14" t="n">
-        <v>8471.102745988101</v>
+        <v>9328.439947695229</v>
       </c>
       <c r="M14" t="n">
-        <v>43.8392596041</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>128335.400722186</v>
-      </c>
-      <c r="C15" t="n">
-        <v>40214.9388792406</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3000.8171908463</v>
-      </c>
-      <c r="E15" t="n">
-        <v>613.0873332525</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5618.5990743466</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2905.5469234507</v>
-      </c>
-      <c r="H15" t="n">
-        <v>131729.883021481</v>
-      </c>
-      <c r="I15" t="n">
-        <v>402080.833263269</v>
-      </c>
-      <c r="J15" t="n">
-        <v>17307.246799319</v>
-      </c>
-      <c r="K15" t="n">
-        <v>409.900057943</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8632.7705009847</v>
-      </c>
-      <c r="M15" t="n">
-        <v>43.6552181275</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>132692.753575739</v>
-      </c>
-      <c r="C16" t="n">
-        <v>38655.3530415386</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3159.8828943437</v>
-      </c>
-      <c r="E16" t="n">
-        <v>615.7223880434</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5820.8023019648</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2930.308355854</v>
-      </c>
-      <c r="H16" t="n">
-        <v>122250.822995913</v>
-      </c>
-      <c r="I16" t="n">
-        <v>407230.120988591</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18465.1207906125</v>
-      </c>
-      <c r="K16" t="n">
-        <v>427.6331519242</v>
-      </c>
-      <c r="L16" t="n">
-        <v>8817.902413218901</v>
-      </c>
-      <c r="M16" t="n">
-        <v>46.2988774665</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>134905.289572523</v>
-      </c>
-      <c r="C17" t="n">
-        <v>35486.8268822959</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3179.8290221828</v>
-      </c>
-      <c r="E17" t="n">
-        <v>616.8859773369001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5645.4090008492</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3046.1271627955</v>
-      </c>
-      <c r="H17" t="n">
-        <v>130536.607404537</v>
-      </c>
-      <c r="I17" t="n">
-        <v>413133.769492537</v>
-      </c>
-      <c r="J17" t="n">
-        <v>18683.5586607823</v>
-      </c>
-      <c r="K17" t="n">
-        <v>439.9322900993</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8749.5217259696</v>
-      </c>
-      <c r="M17" t="n">
-        <v>47.3156902449</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>137972.73594201</v>
-      </c>
-      <c r="C18" t="n">
-        <v>35785.2747775913</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3064.0289593241</v>
-      </c>
-      <c r="E18" t="n">
-        <v>616.9050496562</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5425.4937602194</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3160.5386601843</v>
-      </c>
-      <c r="H18" t="n">
-        <v>129164.201292881</v>
-      </c>
-      <c r="I18" t="n">
-        <v>411642.392761842</v>
-      </c>
-      <c r="J18" t="n">
-        <v>18844.2120458637</v>
-      </c>
-      <c r="K18" t="n">
-        <v>460.2510052461</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8628.3280203706</v>
-      </c>
-      <c r="M18" t="n">
-        <v>55.5283630024</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>133458.484224428</v>
-      </c>
-      <c r="C19" t="n">
-        <v>32862.6882189927</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3038.6209477391</v>
-      </c>
-      <c r="E19" t="n">
-        <v>634.6234182484</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5451.7968818266</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3096.2890712863</v>
-      </c>
-      <c r="H19" t="n">
-        <v>127920.729437913</v>
-      </c>
-      <c r="I19" t="n">
-        <v>410522.523698496</v>
-      </c>
-      <c r="J19" t="n">
-        <v>17852.2700817565</v>
-      </c>
-      <c r="K19" t="n">
-        <v>471.068294881</v>
-      </c>
-      <c r="L19" t="n">
-        <v>8654.4312782993</v>
-      </c>
-      <c r="M19" t="n">
-        <v>54.2543574255</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>120429.887846092</v>
-      </c>
-      <c r="C20" t="n">
-        <v>26964.9580353221</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3074.564110173</v>
-      </c>
-      <c r="E20" t="n">
-        <v>644.0603787876</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5403.7357364028</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3128.2836972303</v>
-      </c>
-      <c r="H20" t="n">
-        <v>117891.25432</v>
-      </c>
-      <c r="I20" t="n">
-        <v>356607.551166092</v>
-      </c>
-      <c r="J20" t="n">
-        <v>15437.7564</v>
-      </c>
-      <c r="K20" t="n">
-        <v>475.0716019245</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8624.628536447</v>
-      </c>
-      <c r="M20" t="n">
-        <v>44.68785576</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>113283.801727666</v>
-      </c>
-      <c r="C21" t="n">
-        <v>24875.2555555823</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3201.2394112041</v>
-      </c>
-      <c r="E21" t="n">
-        <v>667.2798657215</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4255.3070768506</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3308.9770842664</v>
-      </c>
-      <c r="H21" t="n">
-        <v>108972.8497</v>
-      </c>
-      <c r="I21" t="n">
-        <v>341120.156777666</v>
-      </c>
-      <c r="J21" t="n">
-        <v>14964.4254</v>
-      </c>
-      <c r="K21" t="n">
-        <v>487.5232930219</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7758.7774985892</v>
-      </c>
-      <c r="M21" t="n">
-        <v>44.405378932</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>116848.51681</v>
-      </c>
-      <c r="C22" t="n">
-        <v>24033.60006</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3440.14009154393</v>
-      </c>
-      <c r="E22" t="n">
-        <v>672.445227594702</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4113.32751561209</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3467.75941997635</v>
-      </c>
-      <c r="H22" t="n">
-        <v>106109.26996</v>
-      </c>
-      <c r="I22" t="n">
-        <v>333624.70177</v>
-      </c>
-      <c r="J22" t="n">
-        <v>15243.641677129</v>
-      </c>
-      <c r="K22" t="n">
-        <v>492.312448156042</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7748.37940974222</v>
-      </c>
-      <c r="M22" t="n">
-        <v>45.81444625</v>
+        <v>46.1887052202955</v>
       </c>
     </row>
   </sheetData>
